--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail1 Features.xlsx
@@ -4689,7 +4689,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.412850145402019</v>
+        <v>1.411224881040236</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.538773626783966</v>
@@ -4778,7 +4778,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.413366231476248</v>
+        <v>1.40645383966583</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.610962805982525</v>
@@ -4867,7 +4867,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.433486454097119</v>
+        <v>1.421606013035183</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.160354409978463</v>
@@ -4956,7 +4956,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.464718234383069</v>
+        <v>1.448520559170498</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.418447949113919</v>
@@ -5045,7 +5045,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.490121744509616</v>
+        <v>1.474272375307291</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.694122816097194</v>
@@ -5134,7 +5134,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.508743640407499</v>
+        <v>1.489912210898111</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.889635856652085</v>
@@ -5223,7 +5223,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.48700053709256</v>
+        <v>1.478050873020048</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.047070972532839</v>
@@ -5312,7 +5312,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.491282060765805</v>
+        <v>1.480757024744588</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.57956055089438</v>
@@ -5401,7 +5401,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.463286627540767</v>
+        <v>1.458782463314424</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.9543877159311</v>
@@ -5490,7 +5490,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.430723939161435</v>
+        <v>1.429222326150273</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.666847726662159</v>
@@ -5579,7 +5579,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.445253034058268</v>
+        <v>1.442075740678647</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.739740663088608</v>
@@ -5668,7 +5668,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.432774284159309</v>
+        <v>1.430101368039197</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.943522396509958</v>
@@ -5757,7 +5757,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.413774209297164</v>
+        <v>1.410501383571979</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.776641173742645</v>
@@ -5846,7 +5846,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.40954840741152</v>
+        <v>1.408999000903671</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.598882542910845</v>
@@ -5935,7 +5935,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.406537348229818</v>
+        <v>1.40625082152189</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.023190545188626</v>
@@ -6024,7 +6024,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.413829274166408</v>
+        <v>1.414993107965547</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.866543187183573</v>
@@ -6113,7 +6113,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.419714276245012</v>
+        <v>1.420651688453649</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.670674976179526</v>
@@ -6202,7 +6202,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.409363293174475</v>
+        <v>1.412786977874705</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.890726477961438</v>
@@ -6291,7 +6291,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.417603192548855</v>
+        <v>1.416807303838783</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.701333738058913</v>
@@ -6380,7 +6380,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.418649093686663</v>
+        <v>1.410028936217205</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.644048814351249</v>
@@ -6469,7 +6469,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.397986224663854</v>
+        <v>1.391971354087732</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.647050713834268</v>
@@ -6558,7 +6558,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.418958028553329</v>
+        <v>1.410882565392251</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.679420071213519</v>
@@ -6647,7 +6647,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.417146175520652</v>
+        <v>1.409329207258341</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.498440926909638</v>
@@ -6736,7 +6736,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.448430706674627</v>
+        <v>1.436494282746871</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.878378770889155</v>
@@ -6825,7 +6825,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.47105429144412</v>
+        <v>1.451338743858778</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.480625721288413</v>
@@ -6914,7 +6914,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.466414794714227</v>
+        <v>1.450195781687833</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.709125007688901</v>
@@ -7003,7 +7003,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.470724757903988</v>
+        <v>1.453365362158006</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.525148601049926</v>
@@ -7092,7 +7092,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.473960751821449</v>
+        <v>1.45756238079605</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.479071964486302</v>
@@ -7181,7 +7181,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.480811920991851</v>
+        <v>1.464089459596533</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.54554622118105</v>
@@ -7270,7 +7270,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.498842774224535</v>
+        <v>1.477568208701066</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.619175392324085</v>
@@ -7359,7 +7359,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.492384952773296</v>
+        <v>1.466513593521369</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.805620492031895</v>
@@ -7448,7 +7448,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.477732361992059</v>
+        <v>1.455477109301629</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.735329161848524</v>
@@ -7537,7 +7537,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.483921653756449</v>
+        <v>1.463209131122212</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.932148362661956</v>
@@ -7626,7 +7626,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.491952826939241</v>
+        <v>1.473565032741781</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.737756613088488</v>
@@ -7715,7 +7715,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.505004322802936</v>
+        <v>1.486856751502774</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.480614945737467</v>
@@ -7804,7 +7804,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.510457768445354</v>
+        <v>1.490679315658029</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.742069326442738</v>
@@ -7893,7 +7893,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.500051679612936</v>
+        <v>1.475478490528472</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.550664607908624</v>
@@ -7982,7 +7982,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.505282169671655</v>
+        <v>1.488654677046045</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.777564948419574</v>
@@ -8071,7 +8071,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.492204542944997</v>
+        <v>1.47508666786595</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.626881706398547</v>
@@ -8160,7 +8160,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.504948435086603</v>
+        <v>1.489165761414381</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.53200773194342</v>
@@ -8249,7 +8249,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.523458865594988</v>
+        <v>1.50024745178715</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.736278632611139</v>
@@ -8338,7 +8338,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.516730637847525</v>
+        <v>1.494149241668095</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.783168981914646</v>
@@ -8624,7 +8624,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.547185181582576</v>
+        <v>1.533848164021245</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.106921974523846</v>
@@ -8713,7 +8713,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.537819822199126</v>
+        <v>1.524311045868585</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.92069232537981</v>
@@ -8802,7 +8802,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.547431099817026</v>
+        <v>1.525854544427436</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.58209149626934</v>
@@ -8891,7 +8891,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.548141491040441</v>
+        <v>1.523179839545732</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.86846284743456</v>
@@ -8980,7 +8980,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.532504676632819</v>
+        <v>1.509160106117838</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.942838663530027</v>
@@ -9069,7 +9069,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.513802033107273</v>
+        <v>1.489636147950731</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.59858721407668</v>
@@ -9158,7 +9158,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.518887988993794</v>
+        <v>1.488383565980016</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.492851245656444</v>
@@ -9247,7 +9247,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.523201112134511</v>
+        <v>1.490100571545446</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.936332181072102</v>
@@ -9336,7 +9336,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.525641108460164</v>
+        <v>1.500338727035783</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.752326160649937</v>
@@ -9425,7 +9425,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.527190973189705</v>
+        <v>1.506054234439476</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.608195900524818</v>
@@ -9514,7 +9514,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.531677033117312</v>
+        <v>1.508488480050995</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.921422646050446</v>
@@ -9603,7 +9603,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.527155758930696</v>
+        <v>1.504694029241297</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.754106680771072</v>
@@ -9692,7 +9692,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.53428850452446</v>
+        <v>1.51205832425829</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.595799843825827</v>
@@ -9781,7 +9781,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.545808036713552</v>
+        <v>1.527478027594629</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.674104405773633</v>
@@ -9870,7 +9870,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.541760866661612</v>
+        <v>1.518564354551493</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.645402069389489</v>
@@ -9959,7 +9959,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.542100209929888</v>
+        <v>1.525439723243615</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.690283135138583</v>
@@ -10048,7 +10048,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.547943350417309</v>
+        <v>1.529382038287363</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.910571662302906</v>
@@ -10137,7 +10137,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.54871789412368</v>
+        <v>1.530147304703895</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.32418120972826</v>
@@ -10226,7 +10226,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.558022749529066</v>
+        <v>1.544462311025943</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.21006860471339</v>
@@ -10315,7 +10315,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.572911295180664</v>
+        <v>1.548458641821185</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.932348785078923</v>
@@ -10404,7 +10404,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.565441948046821</v>
+        <v>1.545450914969645</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.491217161238759</v>
@@ -10493,7 +10493,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.570829844197306</v>
+        <v>1.545595670382558</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.330793972226843</v>
@@ -10582,7 +10582,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.580938504495819</v>
+        <v>1.5586570070613</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.120834603466866</v>
@@ -10671,7 +10671,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.584113395477648</v>
+        <v>1.553197247673812</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.992150063780044</v>
@@ -10760,7 +10760,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.589777203606357</v>
+        <v>1.551458475714783</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.480762133493622</v>
@@ -10849,7 +10849,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.588739205957247</v>
+        <v>1.553858143432202</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.405289657302327</v>
@@ -10938,7 +10938,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.602459517493085</v>
+        <v>1.563452317709473</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.408257741329304</v>
@@ -11027,7 +11027,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.591921255818063</v>
+        <v>1.555219794420381</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.561883239086683</v>
@@ -11116,7 +11116,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.584914104354692</v>
+        <v>1.550320290563833</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.400899988345642</v>
@@ -11205,7 +11205,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.588336257667874</v>
+        <v>1.557065980243348</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.626582720833599</v>
@@ -11294,7 +11294,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.588290320382999</v>
+        <v>1.552570098538542</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.493155436996438</v>
@@ -11383,7 +11383,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.574969955038311</v>
+        <v>1.542563866041869</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.60325755311889</v>
@@ -11472,7 +11472,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.578791280284229</v>
+        <v>1.547087483625283</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.290933821778883</v>
@@ -11561,7 +11561,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.588149444018539</v>
+        <v>1.555756735687924</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.96851683330688</v>
@@ -11650,7 +11650,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.5806747616924</v>
+        <v>1.55680044000576</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.248831513484106</v>
@@ -11739,7 +11739,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.584045038395578</v>
+        <v>1.54964933976307</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.467002246165691</v>
@@ -11828,7 +11828,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.57778157545334</v>
+        <v>1.545778031146178</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.560484921887339</v>
@@ -11917,7 +11917,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.585437522559939</v>
+        <v>1.550993507264005</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.252534568341115</v>
@@ -12006,7 +12006,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.565622734617149</v>
+        <v>1.533359459496862</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.028588142096406</v>
@@ -12095,7 +12095,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.556941742631365</v>
+        <v>1.526929107059699</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.213498783878515</v>
@@ -12184,7 +12184,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.560501133671968</v>
+        <v>1.530293035497952</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.042340558752032</v>
@@ -12273,7 +12273,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.55109141142984</v>
+        <v>1.522415108528512</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.164304926047041</v>
@@ -12559,7 +12559,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.62095842038382</v>
+        <v>1.572229810320628</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.490203663710203</v>
@@ -12648,7 +12648,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.620855063898162</v>
+        <v>1.570147402391004</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.501255049669981</v>
@@ -12737,7 +12737,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.620700487059578</v>
+        <v>1.562301456189253</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.756538317804269</v>
@@ -12826,7 +12826,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.62017487627825</v>
+        <v>1.560608425235989</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.157418222430891</v>
@@ -12915,7 +12915,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.625215475672139</v>
+        <v>1.559232314242736</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.302745712465675</v>
@@ -13004,7 +13004,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.603661669552065</v>
+        <v>1.52870046295074</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.404396685078638</v>
@@ -13093,7 +13093,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.594501176825739</v>
+        <v>1.521586109655838</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.15227287554543</v>
@@ -13182,7 +13182,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.591406609719684</v>
+        <v>1.515998318339873</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.547940745149173</v>
@@ -13271,7 +13271,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.586821136557634</v>
+        <v>1.50595164003571</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.226877481956058</v>
@@ -13360,7 +13360,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.581882072497058</v>
+        <v>1.4980827665119</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.348578448504459</v>
@@ -13449,7 +13449,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.589713805082235</v>
+        <v>1.510355508288654</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.045695377086717</v>
@@ -13538,7 +13538,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.584751020203964</v>
+        <v>1.507681525561161</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.546986485925689</v>
@@ -13627,7 +13627,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.58208033793072</v>
+        <v>1.504705310689088</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.251146126384966</v>
@@ -13716,7 +13716,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.58710033640452</v>
+        <v>1.515006182159189</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.215776490463922</v>
@@ -13805,7 +13805,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.57803695569588</v>
+        <v>1.509667077263807</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.448319776113655</v>
@@ -13894,7 +13894,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.587271550291426</v>
+        <v>1.52253610251271</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.392787039737009</v>
@@ -13983,7 +13983,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.596884444715586</v>
+        <v>1.531204043826623</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.369307216721063</v>
@@ -14072,7 +14072,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.612472758922229</v>
+        <v>1.54508976494458</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.037571058123663</v>
@@ -14161,7 +14161,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.628919427976893</v>
+        <v>1.548420913075525</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.613811614233777</v>
@@ -14250,7 +14250,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.634286545128533</v>
+        <v>1.553339392387859</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.389162347705078</v>
@@ -14339,7 +14339,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.632799362854011</v>
+        <v>1.556754430210277</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.277695074058343</v>
@@ -14428,7 +14428,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.643657124403674</v>
+        <v>1.566974816416355</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.52701141387236</v>
@@ -14517,7 +14517,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.637710113728817</v>
+        <v>1.565295539183551</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.438951175907772</v>
@@ -14606,7 +14606,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.644605322861303</v>
+        <v>1.574124889515023</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.076960042783406</v>
@@ -14695,7 +14695,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.654711217046339</v>
+        <v>1.580215222868131</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.097302238455317</v>
@@ -14784,7 +14784,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.644416329069822</v>
+        <v>1.568602464288861</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.355962423811063</v>
@@ -14873,7 +14873,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.643426875502631</v>
+        <v>1.56825590211454</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.243751754789302</v>
@@ -14962,7 +14962,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.648501822465372</v>
+        <v>1.569572912433221</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.249002734975591</v>
@@ -15051,7 +15051,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.640669083541835</v>
+        <v>1.554595366892725</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.300912162500774</v>
@@ -15140,7 +15140,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.653463748645529</v>
+        <v>1.554843907915238</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.085529478322731</v>
@@ -15229,7 +15229,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.641094928694698</v>
+        <v>1.535606056845289</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.525622503153297</v>
@@ -15318,7 +15318,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.633252265271306</v>
+        <v>1.524818417282637</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.479859476195431</v>
@@ -15407,7 +15407,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.621125406341127</v>
+        <v>1.523775797593788</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.563846444965923</v>
@@ -15496,7 +15496,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.614160752261126</v>
+        <v>1.524045902629679</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.362029960477568</v>
@@ -15585,7 +15585,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.617899577456964</v>
+        <v>1.527956767594688</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.550682589751033</v>
@@ -15674,7 +15674,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.615074882779683</v>
+        <v>1.527701956977178</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.471865680366845</v>
@@ -15763,7 +15763,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.607686196044748</v>
+        <v>1.518502353290749</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.518570152496204</v>
@@ -15852,7 +15852,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.611814242145512</v>
+        <v>1.523798387293739</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.362706921113622</v>
@@ -15941,7 +15941,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.606446545363598</v>
+        <v>1.518196774079489</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.592117894287069</v>
@@ -16030,7 +16030,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.604649540498983</v>
+        <v>1.521634196984674</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.292802476481769</v>
@@ -16119,7 +16119,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.615308229549807</v>
+        <v>1.524541547563083</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.482112574092193</v>
@@ -16208,7 +16208,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.616035060812562</v>
+        <v>1.529305618353117</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.557598528981183</v>
@@ -16494,7 +16494,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.563834698226811</v>
+        <v>1.523541175997483</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.23955299651732</v>
@@ -16583,7 +16583,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.552515904964765</v>
+        <v>1.510094406193514</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.228569402840126</v>
@@ -16672,7 +16672,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.540417745261975</v>
+        <v>1.500904103224185</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.88048401830712</v>
@@ -16761,7 +16761,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.542825992602431</v>
+        <v>1.495602801375774</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.147283132002069</v>
@@ -16850,7 +16850,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.53676731194473</v>
+        <v>1.486615722372842</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.040217181116056</v>
@@ -16939,7 +16939,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.5219960224079</v>
+        <v>1.464438399652533</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.750146631261428</v>
@@ -17028,7 +17028,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.499432888303552</v>
+        <v>1.443509871372063</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.827994643398845</v>
@@ -17117,7 +17117,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.495540846673446</v>
+        <v>1.438565003462487</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.973283706244935</v>
@@ -17206,7 +17206,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.482720907287848</v>
+        <v>1.430692678169086</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.120843022285349</v>
@@ -17295,7 +17295,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.465094461899749</v>
+        <v>1.413220308602834</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.862486990582637</v>
@@ -17384,7 +17384,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.472690243721383</v>
+        <v>1.422831145803148</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.806403607799425</v>
@@ -17473,7 +17473,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.465906515896368</v>
+        <v>1.416172944310651</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.016297582323623</v>
@@ -17562,7 +17562,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.463170970711854</v>
+        <v>1.412733463110045</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.019893169965295</v>
@@ -17651,7 +17651,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.459455191682309</v>
+        <v>1.412397655393037</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.833935609802193</v>
@@ -17740,7 +17740,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.45902135436689</v>
+        <v>1.41133855463325</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.658655942724719</v>
@@ -17829,7 +17829,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.463431918326718</v>
+        <v>1.416725891538677</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.906836339731254</v>
@@ -17918,7 +17918,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.47910064345342</v>
+        <v>1.430860188102093</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.061843902470392</v>
@@ -18007,7 +18007,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.492198365782883</v>
+        <v>1.440211517679045</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.062405447037717</v>
@@ -18096,7 +18096,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.506341933872233</v>
+        <v>1.449030236287588</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.810589950669069</v>
@@ -18185,7 +18185,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.5156048597044</v>
+        <v>1.456538122067591</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.820715197977411</v>
@@ -18274,7 +18274,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.513202595728509</v>
+        <v>1.460101572714391</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.997842617502635</v>
@@ -18363,7 +18363,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.524551523764329</v>
+        <v>1.468524454608786</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.033405722567974</v>
@@ -18452,7 +18452,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.531752266468239</v>
+        <v>1.47467184608948</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.153415221101023</v>
@@ -18541,7 +18541,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.546636527562</v>
+        <v>1.491861590722338</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.021339481815748</v>
@@ -18630,7 +18630,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.563230778500023</v>
+        <v>1.507361154125232</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.652068118207441</v>
@@ -18719,7 +18719,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.554188259789502</v>
+        <v>1.497744847339555</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.960863285775771</v>
@@ -18808,7 +18808,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.566790047987813</v>
+        <v>1.508387678959138</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.012687967991367</v>
@@ -18897,7 +18897,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.558670721002102</v>
+        <v>1.50487349378569</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.975978947660349</v>
@@ -18986,7 +18986,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.567729514750428</v>
+        <v>1.51043549666268</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.029953429257058</v>
@@ -19075,7 +19075,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.582553437853555</v>
+        <v>1.522209411579046</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.315725227068381</v>
@@ -19164,7 +19164,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.576529061718176</v>
+        <v>1.512538185788345</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.301666706577286</v>
@@ -19253,7 +19253,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.564513994889313</v>
+        <v>1.502072120183584</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.24666234726894</v>
@@ -19342,7 +19342,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.558461439079604</v>
+        <v>1.502074199482389</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.305078673287152</v>
@@ -19431,7 +19431,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.56630132164147</v>
+        <v>1.51472188133403</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.258853283741943</v>
@@ -19520,7 +19520,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.573232952619133</v>
+        <v>1.523540136732874</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.806776408591325</v>
@@ -19609,7 +19609,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.574013990380946</v>
+        <v>1.521467236237418</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.046859359897385</v>
@@ -19698,7 +19698,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.566051009459714</v>
+        <v>1.512756687280244</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.195729312305345</v>
@@ -19787,7 +19787,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.560949086886077</v>
+        <v>1.514105991225115</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.141367911783713</v>
@@ -19876,7 +19876,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.548004435508078</v>
+        <v>1.50195926626182</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.956617617882502</v>
@@ -19965,7 +19965,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.543327590391746</v>
+        <v>1.497425056578744</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.252338061583669</v>
@@ -20054,7 +20054,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.558973043292664</v>
+        <v>1.50108573083583</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.179068927386814</v>
@@ -20143,7 +20143,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.557331263323861</v>
+        <v>1.500811601041798</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.321248553503873</v>
@@ -20429,7 +20429,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.25355468110407</v>
+        <v>1.237624493813788</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.706010350518286</v>
@@ -20518,7 +20518,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.276312008209909</v>
+        <v>1.260956156976633</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.671166291146014</v>
@@ -20607,7 +20607,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.306110049626991</v>
+        <v>1.29346713773994</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.605545586285373</v>
@@ -20696,7 +20696,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.461645128474624</v>
+        <v>1.435663713189095</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.022529283354376</v>
@@ -20785,7 +20785,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.529508457248985</v>
+        <v>1.494733573762215</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.514918565368429</v>
@@ -20874,7 +20874,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.543481037476102</v>
+        <v>1.502079302900982</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.912228260094192</v>
@@ -20963,7 +20963,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.563581136000702</v>
+        <v>1.52238733451134</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.046403012152457</v>
@@ -21052,7 +21052,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.576627179723054</v>
+        <v>1.534173776851915</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.160181366602357</v>
@@ -21141,7 +21141,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.588657263948801</v>
+        <v>1.543611966160623</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.291667674578405</v>
@@ -21230,7 +21230,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.598957469135135</v>
+        <v>1.554168120245575</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.470510762768157</v>
@@ -21319,7 +21319,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.603208024400034</v>
+        <v>1.555339144638079</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.784154145144829</v>
@@ -21408,7 +21408,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.592923077847123</v>
+        <v>1.5465574694047</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.071645088503021</v>
@@ -21497,7 +21497,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.58958506506232</v>
+        <v>1.547998403173485</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.829580017445064</v>
@@ -21586,7 +21586,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.581478983501929</v>
+        <v>1.545837278225207</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.892062507471725</v>
@@ -21675,7 +21675,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.572881432589994</v>
+        <v>1.544074677929518</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.021011228915177</v>
@@ -21764,7 +21764,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.568069998232819</v>
+        <v>1.538517996117058</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.169383873001564</v>
@@ -21853,7 +21853,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.562993614292986</v>
+        <v>1.539870842664997</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.037850890207602</v>
@@ -21942,7 +21942,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.550166916308688</v>
+        <v>1.536119414810966</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.111014127693863</v>
@@ -22031,7 +22031,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.567195796115895</v>
+        <v>1.550340881142433</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.798409956712364</v>
@@ -22120,7 +22120,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.562715898758014</v>
+        <v>1.547642930437531</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.614822796436419</v>
@@ -22209,7 +22209,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.555736444299056</v>
+        <v>1.539704137420964</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.183031999115497</v>
@@ -22298,7 +22298,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.550841034113664</v>
+        <v>1.543508422626927</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.103708780512505</v>
@@ -22387,7 +22387,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.538392491238345</v>
+        <v>1.527790388701846</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.092180890028858</v>
@@ -22476,7 +22476,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.529246231340321</v>
+        <v>1.520133359799107</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.976659307887263</v>
@@ -22565,7 +22565,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.510880514054636</v>
+        <v>1.505322982948346</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.05277351531376</v>
@@ -22654,7 +22654,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.509203278952499</v>
+        <v>1.506490775248838</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.804525028643702</v>
@@ -22743,7 +22743,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.515782935226653</v>
+        <v>1.510979175506134</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.923264961666692</v>
@@ -22832,7 +22832,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.529320158348249</v>
+        <v>1.521512983294106</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.688695672477018</v>
@@ -22921,7 +22921,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.543772130440108</v>
+        <v>1.533269216771054</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.813006586757404</v>
@@ -23010,7 +23010,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.549418447381371</v>
+        <v>1.540632965104432</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.211023555467478</v>
@@ -23099,7 +23099,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.561622026516694</v>
+        <v>1.550817655901971</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.735557115824358</v>
@@ -23188,7 +23188,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.569918055998794</v>
+        <v>1.558730264683289</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.792955252494192</v>
@@ -23277,7 +23277,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.586132396130656</v>
+        <v>1.575521603847612</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.235241884489789</v>
@@ -23366,7 +23366,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.600978287984559</v>
+        <v>1.589415558538497</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.192386233689404</v>
@@ -23455,7 +23455,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.611800404212765</v>
+        <v>1.597439477870282</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.238471223373521</v>
@@ -23544,7 +23544,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.625289326809923</v>
+        <v>1.604907921357128</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.753595036170829</v>
@@ -23633,7 +23633,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618812583877444</v>
+        <v>1.594913195256426</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.927945492093263</v>
@@ -23722,7 +23722,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.632417157201007</v>
+        <v>1.611258345582545</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.757729226915741</v>
@@ -23811,7 +23811,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.640190305750026</v>
+        <v>1.61368196759313</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.877753497167122</v>
@@ -23900,7 +23900,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.64497224455633</v>
+        <v>1.615504772152667</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.1161232524903</v>
@@ -23989,7 +23989,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.655868521014052</v>
+        <v>1.624142887331638</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.472435220101894</v>
@@ -24078,7 +24078,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.665561248385352</v>
+        <v>1.63062334595053</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.772046859958315</v>
@@ -24364,7 +24364,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.323987294485411</v>
+        <v>1.315372028330217</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.511107445180935</v>
@@ -24453,7 +24453,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.32654925530391</v>
+        <v>1.309954265936641</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.517608232816426</v>
@@ -24542,7 +24542,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.32689514793993</v>
+        <v>1.312363639490535</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.120648366878513</v>
@@ -24631,7 +24631,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.346483900475071</v>
+        <v>1.330145339271955</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.357287779210612</v>
@@ -24720,7 +24720,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.358867329606008</v>
+        <v>1.347533541381026</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.261359080356621</v>
@@ -24809,7 +24809,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.373974349689931</v>
+        <v>1.361275672663795</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.364747727333742</v>
@@ -24898,7 +24898,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.34292030912369</v>
+        <v>1.334407890646235</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.409682728146449</v>
@@ -24987,7 +24987,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.342397883688582</v>
+        <v>1.328043260340569</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.391325216105139</v>
@@ -25076,7 +25076,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.31855374550752</v>
+        <v>1.308698208823648</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.432201213751066</v>
@@ -25165,7 +25165,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.286883792020314</v>
+        <v>1.278151766153112</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.425774120105933</v>
@@ -25254,7 +25254,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.290402987027114</v>
+        <v>1.284597441260928</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.465020325262314</v>
@@ -25343,7 +25343,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.290676423782293</v>
+        <v>1.280615893154017</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.666867907150465</v>
@@ -25432,7 +25432,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.274010195304158</v>
+        <v>1.260533881594807</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.715473042514166</v>
@@ -25521,7 +25521,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.271969852768241</v>
+        <v>1.260972729853018</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.446998519599403</v>
@@ -25610,7 +25610,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.269836245640425</v>
+        <v>1.260613707818342</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.570258382717115</v>
@@ -25699,7 +25699,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.277589594067819</v>
+        <v>1.269093743706588</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.455329764291076</v>
@@ -25788,7 +25788,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.288836800172417</v>
+        <v>1.281638842420394</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.403888201887498</v>
@@ -25877,7 +25877,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.293512711122063</v>
+        <v>1.286412057437661</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.79064835071245</v>
@@ -25966,7 +25966,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.306126397970018</v>
+        <v>1.295407610185341</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.432869519069227</v>
@@ -26055,7 +26055,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.319305405753892</v>
+        <v>1.301683355741568</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.429075887264358</v>
@@ -26144,7 +26144,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.305034471453429</v>
+        <v>1.290425979922212</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.402010771546905</v>
@@ -26233,7 +26233,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.32177862649455</v>
+        <v>1.30805788808868</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.489838490184181</v>
@@ -26322,7 +26322,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.324924247060104</v>
+        <v>1.307784514995263</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.327578609467242</v>
@@ -26411,7 +26411,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.351843997689847</v>
+        <v>1.333709550844362</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.611433277886933</v>
@@ -26500,7 +26500,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.37691563454495</v>
+        <v>1.352112430167349</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.267445022304737</v>
@@ -26589,7 +26589,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.366024019685052</v>
+        <v>1.345200388488636</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.522488575223167</v>
@@ -26678,7 +26678,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.362178410313341</v>
+        <v>1.347394246140722</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.461133108089248</v>
@@ -26767,7 +26767,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.36123520832622</v>
+        <v>1.346371339515485</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.291782472424895</v>
@@ -26856,7 +26856,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.371193611881411</v>
+        <v>1.353401013438055</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.380596472263668</v>
@@ -26945,7 +26945,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.38715065585028</v>
+        <v>1.368548772636041</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.518178611044315</v>
@@ -27034,7 +27034,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.380150570806718</v>
+        <v>1.358744702819503</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.60093618861093</v>
@@ -27123,7 +27123,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.357353825313073</v>
+        <v>1.335780824626565</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.529701570302898</v>
@@ -27212,7 +27212,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.35460797748484</v>
+        <v>1.331428328173157</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.567278525339974</v>
@@ -27301,7 +27301,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.360935487612174</v>
+        <v>1.339316318461044</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.408536794966016</v>
@@ -27390,7 +27390,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.363790041777127</v>
+        <v>1.345547338176964</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.243734887286291</v>
@@ -27479,7 +27479,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.370329014397239</v>
+        <v>1.350891597120905</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.54938084440449</v>
@@ -27568,7 +27568,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.362461014964219</v>
+        <v>1.33641922721015</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.264740307269657</v>
@@ -27657,7 +27657,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.364934288497703</v>
+        <v>1.351094184705073</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.418739408718579</v>
@@ -27746,7 +27746,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.358548495907427</v>
+        <v>1.342017829075373</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.296933557257663</v>
@@ -27835,7 +27835,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.364661738349401</v>
+        <v>1.349235657616493</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.319147082145319</v>
@@ -27924,7 +27924,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.389304283474574</v>
+        <v>1.361673356674592</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.394051202139019</v>
@@ -28013,7 +28013,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.394565117522704</v>
+        <v>1.373293824566188</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.462711901843271</v>
